--- a/src/main/resources/excel/input.xlsx
+++ b/src/main/resources/excel/input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fisher/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fisher/IdeaProjects/july-budget/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B142F74F-3381-E04A-8FE4-D942756365A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8DE021-093D-8441-813B-4BF1E8D2E21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="50140" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="760" windowWidth="29280" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>Дата операции</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>ЛУКОЙЛ</t>
+  </si>
+  <si>
+    <t>Перевод деняк</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -809,7 +812,7 @@
         <v>5541</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M7" s="4">
         <v>17</v>
